--- a/ArticleManage/main_working_folder/output_folders/Data 6 N2 and CO2 adsorption/Data6_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 6 N2 and CO2 adsorption/Data6_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 15%  0-1-0-400 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 25%  0-1-0-400 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 40%  0-1-0-400 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 5%  0-1-0-400 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 54%  0-1-0-400 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 58%  0-1-0-400 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 9%  0-1-0-400 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 15%  0&amp;1&amp;0&amp;400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 25%  0&amp;1&amp;0&amp;400 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 40%  0&amp;1&amp;0&amp;400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 5%  0&amp;1&amp;0&amp;400 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 54%  0&amp;1&amp;0&amp;400 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 58%  0&amp;1&amp;0&amp;400 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 9%  0&amp;1&amp;0&amp;400 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -159,12 +159,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 15%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 15%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 15%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 15%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -473,12 +473,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 25%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 25%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 25%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 25%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -787,12 +787,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 40%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 40%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 40%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 40%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1101,12 +1101,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 5%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 5%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 5%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 5%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1415,12 +1415,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 54%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 54%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 54%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 54%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1729,12 +1729,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 58%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 58%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 58%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 58%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2043,12 +2043,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 9%  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 9%  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 9%  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 9%  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 6 N2 and CO2 adsorption/Data6_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 6 N2 and CO2 adsorption/Data6_all_graphs_excel.xlsx
@@ -6734,7 +6734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6755,205 +6755,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
       <c r="B3" s="0">
-        <v>154.4894</v>
+        <v>154.4903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0449</v>
+        <v>0.0452</v>
       </c>
       <c r="B4" s="0">
-        <v>159.3971</v>
+        <v>159.398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0712</v>
+        <v>0.0715</v>
       </c>
       <c r="B5" s="0">
-        <v>161.5936</v>
+        <v>161.3235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0954</v>
+        <v>0.0946</v>
       </c>
       <c r="B6" s="0">
-        <v>162.7039</v>
+        <v>162.7036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1207</v>
+        <v>0.1215</v>
       </c>
       <c r="B7" s="0">
-        <v>163.8153</v>
+        <v>163.8167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1481</v>
+        <v>0.1483</v>
       </c>
       <c r="B8" s="0">
-        <v>164.929</v>
+        <v>164.9298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1681</v>
+        <v>0.1683</v>
       </c>
       <c r="B9" s="0">
-        <v>165.4927</v>
+        <v>165.4935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1986</v>
+        <v>0.1988</v>
       </c>
       <c r="B10" s="0">
-        <v>166.0678</v>
+        <v>165.7976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2186</v>
+        <v>0.2193</v>
       </c>
       <c r="B11" s="0">
-        <v>166.6315</v>
+        <v>166.6329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2428</v>
+        <v>0.2425</v>
       </c>
       <c r="B12" s="0">
-        <v>167.1998</v>
+        <v>166.929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3029</v>
+        <v>0.303</v>
       </c>
       <c r="B13" s="0">
-        <v>167.8069</v>
+        <v>167.8076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3461</v>
+        <v>0.3462</v>
       </c>
       <c r="B14" s="0">
-        <v>168.3957</v>
+        <v>168.6674</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3924</v>
+        <v>0.3925</v>
       </c>
       <c r="B15" s="0">
-        <v>168.9879</v>
+        <v>168.7176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4935</v>
+        <v>0.4441</v>
       </c>
       <c r="B16" s="0">
-        <v>169.6395</v>
+        <v>169.0445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5451</v>
+        <v>0.4941</v>
       </c>
       <c r="B17" s="0">
-        <v>169.6954</v>
+        <v>169.6407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5957</v>
+        <v>0.5446</v>
       </c>
       <c r="B18" s="0">
-        <v>169.7502</v>
+        <v>169.9665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6452</v>
+        <v>0.5956</v>
       </c>
       <c r="B19" s="0">
-        <v>170.3459</v>
+        <v>170.2928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6957</v>
+        <v>0.6451</v>
       </c>
       <c r="B20" s="0">
-        <v>170.9427</v>
+        <v>170.6174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7463</v>
+        <v>0.6956</v>
       </c>
       <c r="B21" s="0">
-        <v>170.9975</v>
+        <v>170.9432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7968</v>
+        <v>0.7462</v>
       </c>
       <c r="B22" s="0">
-        <v>171.0523</v>
+        <v>171.269</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8463</v>
+        <v>0.7962</v>
       </c>
       <c r="B23" s="0">
-        <v>171.648</v>
+        <v>171.5942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8948</v>
+        <v>0.8467</v>
       </c>
       <c r="B24" s="0">
-        <v>171.7005</v>
+        <v>171.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9464</v>
+        <v>0.8951</v>
       </c>
       <c r="B25" s="0">
-        <v>172.2984</v>
+        <v>171.9724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9695</v>
+        <v>0.9456</v>
       </c>
       <c r="B26" s="0">
-        <v>172.3236</v>
+        <v>172.0272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9864</v>
+        <v>0.9688</v>
       </c>
       <c r="B27" s="0">
-        <v>172.8838</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>172.3233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9862</v>
+      </c>
+      <c r="B28" s="0">
+        <v>172.8842</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6983,130 +6991,130 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0163</v>
+        <v>0.0171</v>
       </c>
       <c r="B3" s="0">
-        <v>196.7645</v>
+        <v>196.766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0426</v>
+        <v>0.0429</v>
       </c>
       <c r="B4" s="0">
-        <v>203.2971</v>
+        <v>203.8399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0679</v>
+        <v>0.0676</v>
       </c>
       <c r="B5" s="0">
-        <v>207.1185</v>
+        <v>207.1188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0921</v>
+        <v>0.0918</v>
       </c>
       <c r="B6" s="0">
-        <v>208.7708</v>
+        <v>208.771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1185</v>
+        <v>0.1181</v>
       </c>
       <c r="B7" s="0">
-        <v>210.4254</v>
+        <v>210.4256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1469</v>
+        <v>0.146</v>
       </c>
       <c r="B8" s="0">
-        <v>211.5402</v>
+        <v>211.8108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.168</v>
+        <v>0.1671</v>
       </c>
       <c r="B9" s="0">
-        <v>212.105</v>
+        <v>212.1046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1974</v>
+        <v>0.1981</v>
       </c>
       <c r="B10" s="0">
-        <v>213.221</v>
+        <v>213.2223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2185</v>
+        <v>0.2192</v>
       </c>
       <c r="B11" s="0">
-        <v>213.7858</v>
+        <v>213.5161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2427</v>
+        <v>0.2423</v>
       </c>
       <c r="B12" s="0">
-        <v>214.3541</v>
+        <v>213.8122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2912</v>
+        <v>0.2923</v>
       </c>
       <c r="B13" s="0">
-        <v>214.9486</v>
+        <v>215.4924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3533</v>
+        <v>0.3539</v>
       </c>
       <c r="B14" s="0">
-        <v>215.558</v>
+        <v>216.1012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3965</v>
+        <v>0.397</v>
       </c>
       <c r="B15" s="0">
-        <v>217.2308</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4449</v>
+        <v>0.4444</v>
       </c>
       <c r="B16" s="0">
-        <v>217.8253</v>
+        <v>217.0123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4944</v>
+        <v>0.4939</v>
       </c>
       <c r="B17" s="0">
-        <v>217.879</v>
+        <v>217.608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.545</v>
+        <v>0.5449</v>
       </c>
       <c r="B18" s="0">
-        <v>218.4758</v>
+        <v>217.9343</v>
       </c>
     </row>
     <row r="19">
@@ -7114,71 +7122,71 @@
         <v>0.5955</v>
       </c>
       <c r="B19" s="0">
-        <v>217.9886</v>
+        <v>218.5311</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6461</v>
+        <v>0.6465</v>
       </c>
       <c r="B20" s="0">
-        <v>219.1274</v>
+        <v>218.8574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6956</v>
+        <v>0.6955</v>
       </c>
       <c r="B21" s="0">
-        <v>219.1811</v>
+        <v>218.9105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7461</v>
+        <v>0.7465</v>
       </c>
       <c r="B22" s="0">
-        <v>219.7779</v>
+        <v>219.5078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7967</v>
+        <v>0.7965</v>
       </c>
       <c r="B23" s="0">
-        <v>219.8327</v>
+        <v>219.833</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8462</v>
+        <v>0.846</v>
       </c>
       <c r="B24" s="0">
-        <v>219.8863</v>
+        <v>220.1577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8946</v>
+        <v>0.8954</v>
       </c>
       <c r="B25" s="0">
-        <v>221.0228</v>
+        <v>220.7533</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9462</v>
+        <v>0.9454</v>
       </c>
       <c r="B26" s="0">
-        <v>221.0788</v>
+        <v>220.8075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9873</v>
+        <v>0.987</v>
       </c>
       <c r="B27" s="0">
-        <v>221.1233</v>
+        <v>221.3946</v>
       </c>
     </row>
     <row r="28"/>
@@ -7211,202 +7219,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9883</v>
+        <v>0.017</v>
       </c>
       <c r="B3" s="0">
-        <v>260.1487</v>
+        <v>231.1831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9461</v>
+        <v>0.0454</v>
       </c>
       <c r="B4" s="0">
-        <v>260.1031</v>
+        <v>241.241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8966</v>
+        <v>0.0711</v>
       </c>
       <c r="B5" s="0">
-        <v>260.0494</v>
+        <v>244.792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8461</v>
+        <v>0.0948</v>
       </c>
       <c r="B6" s="0">
-        <v>259.9946</v>
+        <v>247.2567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7966</v>
+        <v>0.1222</v>
       </c>
       <c r="B7" s="0">
-        <v>259.3989</v>
+        <v>248.9124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7471</v>
+        <v>0.1432</v>
       </c>
       <c r="B8" s="0">
-        <v>259.3453</v>
+        <v>250.0192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6976</v>
+        <v>0.1737</v>
       </c>
       <c r="B9" s="0">
-        <v>258.7496</v>
+        <v>251.4073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.647</v>
+        <v>0.1943</v>
       </c>
       <c r="B10" s="0">
-        <v>258.6948</v>
+        <v>252.2425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5965</v>
+        <v>0.2179</v>
       </c>
       <c r="B11" s="0">
-        <v>258.64</v>
+        <v>253.0812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.547</v>
+        <v>0.2427</v>
       </c>
       <c r="B12" s="0">
-        <v>257.5024</v>
+        <v>253.379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4964</v>
+        <v>0.2927</v>
       </c>
       <c r="B13" s="0">
-        <v>257.4476</v>
+        <v>254.5172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4438</v>
+        <v>0.3427</v>
       </c>
       <c r="B14" s="0">
-        <v>256.8485</v>
+        <v>255.3844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3932</v>
+        <v>0.3921</v>
       </c>
       <c r="B15" s="0">
-        <v>255.7097</v>
+        <v>256.2511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3427</v>
+        <v>0.4437</v>
       </c>
       <c r="B16" s="0">
-        <v>255.1129</v>
+        <v>256.849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2932</v>
+        <v>0.4948</v>
       </c>
       <c r="B17" s="0">
-        <v>253.9752</v>
+        <v>257.4463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2416</v>
+        <v>0.5453</v>
       </c>
       <c r="B18" s="0">
-        <v>253.3772</v>
+        <v>257.7721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2184</v>
+        <v>0.5969</v>
       </c>
       <c r="B19" s="0">
-        <v>252.2681</v>
+        <v>258.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1942</v>
+        <v>0.6469</v>
       </c>
       <c r="B20" s="0">
-        <v>251.6999</v>
+        <v>258.6952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1731</v>
+        <v>0.6974</v>
       </c>
       <c r="B21" s="0">
-        <v>251.135</v>
+        <v>259.292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1426</v>
+        <v>0.7469</v>
       </c>
       <c r="B22" s="0">
-        <v>249.4759</v>
+        <v>259.3456</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1226</v>
+        <v>0.7969</v>
       </c>
       <c r="B23" s="0">
-        <v>248.9122</v>
+        <v>260.2128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0952</v>
+        <v>0.8469</v>
       </c>
       <c r="B24" s="0">
-        <v>247.2565</v>
+        <v>259.996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.071</v>
+        <v>0.8969</v>
       </c>
       <c r="B25" s="0">
-        <v>245.0622</v>
+        <v>260.5922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0457</v>
+        <v>0.9463</v>
       </c>
       <c r="B26" s="0">
-        <v>241.2408</v>
+        <v>260.3749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0162</v>
+        <v>0.9879</v>
       </c>
       <c r="B27" s="0">
-        <v>230.9108</v>
+        <v>260.6909</v>
       </c>
     </row>
     <row r="28"/>
@@ -7418,7 +7426,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7439,114 +7447,114 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0165</v>
+        <v>0.0179</v>
       </c>
       <c r="B3" s="0">
-        <v>121.426</v>
+        <v>121.6991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0439</v>
+        <v>0.0442</v>
       </c>
       <c r="B4" s="0">
-        <v>125.7917</v>
+        <v>125.2506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0702</v>
+        <v>0.0711</v>
       </c>
       <c r="B5" s="0">
-        <v>127.4463</v>
+        <v>126.9057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0987</v>
+        <v>0.0979</v>
       </c>
       <c r="B6" s="0">
-        <v>128.0191</v>
+        <v>127.7478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1187</v>
+        <v>0.1184</v>
       </c>
       <c r="B7" s="0">
-        <v>129.1248</v>
+        <v>128.8541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1429</v>
+        <v>0.1426</v>
       </c>
       <c r="B8" s="0">
-        <v>129.693</v>
+        <v>129.4224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1671</v>
+        <v>0.1669</v>
       </c>
       <c r="B9" s="0">
-        <v>129.7193</v>
+        <v>130.2616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1934</v>
+        <v>0.1926</v>
       </c>
       <c r="B10" s="0">
-        <v>130.2899</v>
+        <v>130.5606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2177</v>
+        <v>0.2184</v>
       </c>
       <c r="B11" s="0">
-        <v>130.8581</v>
+        <v>131.1305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2461</v>
+        <v>0.2463</v>
       </c>
       <c r="B12" s="0">
-        <v>131.4309</v>
+        <v>131.1608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2956</v>
+        <v>0.2953</v>
       </c>
       <c r="B13" s="0">
-        <v>131.4846</v>
+        <v>132.0268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3451</v>
+        <v>0.3458</v>
       </c>
       <c r="B14" s="0">
-        <v>132.6223</v>
+        <v>132.6236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3946</v>
+        <v>0.3947</v>
       </c>
       <c r="B15" s="0">
-        <v>133.2179</v>
+        <v>133.2187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4451</v>
+        <v>0.4463</v>
       </c>
       <c r="B16" s="0">
-        <v>133.2727</v>
+        <v>133.5456</v>
       </c>
     </row>
     <row r="17">
@@ -7554,90 +7562,98 @@
         <v>0.4968</v>
       </c>
       <c r="B17" s="0">
-        <v>133.8707</v>
+        <v>133.8713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5979</v>
+        <v>0.5468</v>
       </c>
       <c r="B18" s="0">
-        <v>134.5223</v>
+        <v>134.1965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6484</v>
+        <v>0.5974</v>
       </c>
       <c r="B19" s="0">
-        <v>134.0351</v>
+        <v>134.2513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6979</v>
+        <v>0.6479</v>
       </c>
       <c r="B20" s="0">
-        <v>134.6307</v>
+        <v>134.8481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7495</v>
+        <v>0.6979</v>
       </c>
       <c r="B21" s="0">
-        <v>135.2287</v>
+        <v>134.9023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.798</v>
+        <v>0.7489</v>
       </c>
       <c r="B22" s="0">
-        <v>135.8232</v>
+        <v>135.2286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8485</v>
+        <v>0.7974</v>
       </c>
       <c r="B23" s="0">
-        <v>135.878</v>
+        <v>136.0941</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.897</v>
+        <v>0.8479</v>
       </c>
       <c r="B24" s="0">
-        <v>136.4725</v>
+        <v>136.1489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9465</v>
+        <v>0.8979</v>
       </c>
       <c r="B25" s="0">
-        <v>135.9842</v>
+        <v>136.7451</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9686</v>
+        <v>0.9463</v>
       </c>
       <c r="B26" s="0">
-        <v>136.0082</v>
+        <v>136.2556</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9886</v>
+        <v>0.9679</v>
       </c>
       <c r="B27" s="0">
-        <v>136.0298</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>136.55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9884</v>
+      </c>
+      <c r="B28" s="0">
+        <v>136.3012</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7646,7 +7662,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7667,205 +7683,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.988</v>
+        <v>0.0183</v>
       </c>
       <c r="B3" s="0">
-        <v>346.8693</v>
+        <v>292.9732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9459</v>
+        <v>0.0446</v>
       </c>
       <c r="B4" s="0">
-        <v>346.2817</v>
+        <v>312.5139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8964</v>
+        <v>0.0708</v>
       </c>
       <c r="B5" s="0">
-        <v>346.228</v>
+        <v>320.6724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8448</v>
+        <v>0.0935</v>
       </c>
       <c r="B6" s="0">
-        <v>345.6301</v>
+        <v>324.762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7964</v>
+        <v>0.1192</v>
       </c>
       <c r="B7" s="0">
-        <v>345.0356</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7458</v>
+        <v>0.1466</v>
       </c>
       <c r="B8" s="0">
-        <v>344.4388</v>
+        <v>330.2396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6963</v>
+        <v>0.1682</v>
       </c>
       <c r="B9" s="0">
-        <v>343.8431</v>
+        <v>331.618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6458</v>
+        <v>0.1982</v>
       </c>
       <c r="B10" s="0">
-        <v>342.7043</v>
+        <v>332.7346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5952</v>
+        <v>0.2187</v>
       </c>
       <c r="B11" s="0">
-        <v>342.1075</v>
+        <v>334.1118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5447</v>
+        <v>0.2429</v>
       </c>
       <c r="B12" s="0">
-        <v>341.5107</v>
+        <v>334.9511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4941</v>
+        <v>0.2918</v>
       </c>
       <c r="B13" s="0">
-        <v>340.9139</v>
+        <v>336.6301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4435</v>
+        <v>0.3418</v>
       </c>
       <c r="B14" s="0">
-        <v>339.7751</v>
+        <v>337.7683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3919</v>
+        <v>0.3923</v>
       </c>
       <c r="B15" s="0">
-        <v>338.6351</v>
+        <v>338.9071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3424</v>
+        <v>0.4434</v>
       </c>
       <c r="B16" s="0">
-        <v>338.0395</v>
+        <v>340.3175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2919</v>
+        <v>0.4939</v>
       </c>
       <c r="B17" s="0">
-        <v>336.3586</v>
+        <v>341.1852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2435</v>
+        <v>0.545</v>
       </c>
       <c r="B18" s="0">
-        <v>334.6801</v>
+        <v>342.0536</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2192</v>
+        <v>0.5955</v>
       </c>
       <c r="B19" s="0">
-        <v>333.5698</v>
+        <v>342.3794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1982</v>
+        <v>0.646</v>
       </c>
       <c r="B20" s="0">
-        <v>332.463</v>
+        <v>343.2471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1676</v>
+        <v>0.6965</v>
       </c>
       <c r="B21" s="0">
-        <v>331.3459</v>
+        <v>343.8439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1466</v>
+        <v>0.746</v>
       </c>
       <c r="B22" s="0">
-        <v>329.697</v>
+        <v>344.9816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1192</v>
+        <v>0.796</v>
       </c>
       <c r="B23" s="0">
-        <v>327.4993</v>
+        <v>345.3068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0918</v>
+        <v>0.845</v>
       </c>
       <c r="B24" s="0">
-        <v>324.2176</v>
+        <v>345.9018</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0708</v>
+        <v>0.896</v>
       </c>
       <c r="B25" s="0">
-        <v>320.9428</v>
+        <v>346.2282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0455</v>
+        <v>0.9455</v>
       </c>
       <c r="B26" s="0">
-        <v>312.7853</v>
+        <v>346.5528</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0192</v>
+        <v>0.9665</v>
       </c>
       <c r="B27" s="0">
-        <v>292.1606</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>346.8466</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9871</v>
+      </c>
+      <c r="B28" s="0">
+        <v>346.8689</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7895,202 +7919,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9838</v>
+        <v>0.0167</v>
       </c>
       <c r="B3" s="0">
-        <v>352.2848</v>
+        <v>294.0555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9448</v>
+        <v>0.043</v>
       </c>
       <c r="B4" s="0">
-        <v>351.7006</v>
+        <v>313.8671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8953</v>
+        <v>0.0677</v>
       </c>
       <c r="B5" s="0">
-        <v>350.5629</v>
+        <v>323.108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8437</v>
+        <v>0.094</v>
       </c>
       <c r="B6" s="0">
-        <v>350.507</v>
+        <v>328.0146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7942</v>
+        <v>0.1187</v>
       </c>
       <c r="B7" s="0">
-        <v>349.9113</v>
+        <v>331.0224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7437</v>
+        <v>0.1455</v>
       </c>
       <c r="B8" s="0">
-        <v>348.7725</v>
+        <v>334.3035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6952</v>
+        <v>0.1718</v>
       </c>
       <c r="B9" s="0">
-        <v>348.178</v>
+        <v>335.9581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6436</v>
+        <v>0.1929</v>
       </c>
       <c r="B10" s="0">
-        <v>348.122</v>
+        <v>337.0649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5941</v>
+        <v>0.2234</v>
       </c>
       <c r="B11" s="0">
-        <v>346.4424</v>
+        <v>338.724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5436</v>
+        <v>0.2455</v>
       </c>
       <c r="B12" s="0">
-        <v>346.9296</v>
+        <v>339.832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.493</v>
+        <v>0.2923</v>
       </c>
       <c r="B13" s="0">
-        <v>346.3328</v>
+        <v>341.2377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4425</v>
+        <v>0.3529</v>
       </c>
       <c r="B14" s="0">
-        <v>344.652</v>
+        <v>343.2004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3951</v>
+        <v>0.395</v>
       </c>
       <c r="B15" s="0">
-        <v>344.0586</v>
+        <v>343.788</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.353</v>
+        <v>0.4428</v>
       </c>
       <c r="B16" s="0">
-        <v>342.3869</v>
+        <v>345.1949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2919</v>
+        <v>0.4923</v>
       </c>
       <c r="B17" s="0">
-        <v>341.2367</v>
+        <v>346.3326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2445</v>
+        <v>0.5434</v>
       </c>
       <c r="B18" s="0">
-        <v>339.5593</v>
+        <v>346.6589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2234</v>
+        <v>0.5939</v>
       </c>
       <c r="B19" s="0">
-        <v>338.4524</v>
+        <v>346.9847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1929</v>
+        <v>0.6439</v>
       </c>
       <c r="B20" s="0">
-        <v>336.7933</v>
+        <v>348.1229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1729</v>
+        <v>0.6939</v>
       </c>
       <c r="B21" s="0">
-        <v>335.6876</v>
+        <v>348.4481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1455</v>
+        <v>0.7434</v>
       </c>
       <c r="B22" s="0">
-        <v>333.4899</v>
+        <v>349.0437</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1181</v>
+        <v>0.7939</v>
       </c>
       <c r="B23" s="0">
-        <v>330.7502</v>
+        <v>350.4535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0939</v>
+        <v>0.8439</v>
       </c>
       <c r="B24" s="0">
-        <v>328.556</v>
+        <v>350.7787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0676</v>
+        <v>0.8939</v>
       </c>
       <c r="B25" s="0">
-        <v>323.1074</v>
+        <v>351.3749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0434</v>
+        <v>0.9449</v>
       </c>
       <c r="B26" s="0">
-        <v>313.325</v>
+        <v>351.9722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0171</v>
+        <v>0.9833</v>
       </c>
       <c r="B27" s="0">
-        <v>293.7844</v>
+        <v>353.3689</v>
       </c>
     </row>
     <row r="28"/>
@@ -8123,202 +8147,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9865</v>
+        <v>0.0174</v>
       </c>
       <c r="B3" s="0">
-        <v>140.3636</v>
+        <v>121.1565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9464</v>
+        <v>0.0427</v>
       </c>
       <c r="B4" s="0">
-        <v>141.4042</v>
+        <v>126.6039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8969</v>
+        <v>0.0674</v>
       </c>
       <c r="B5" s="0">
-        <v>140.2665</v>
+        <v>129.0698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8464</v>
+        <v>0.0958</v>
       </c>
       <c r="B6" s="0">
-        <v>140.2117</v>
+        <v>131.2686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7948</v>
+        <v>0.1205</v>
       </c>
       <c r="B7" s="0">
-        <v>140.1558</v>
+        <v>131.8374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7453</v>
+        <v>0.1463</v>
       </c>
       <c r="B8" s="0">
-        <v>140.1022</v>
+        <v>132.6784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6958</v>
+        <v>0.1726</v>
       </c>
       <c r="B9" s="0">
-        <v>139.5065</v>
+        <v>134.3329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6452</v>
+        <v>0.1932</v>
       </c>
       <c r="B10" s="0">
-        <v>138.9097</v>
+        <v>134.6262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5947</v>
+        <v>0.2232</v>
       </c>
       <c r="B11" s="0">
-        <v>138.8549</v>
+        <v>134.9297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5431</v>
+        <v>0.2453</v>
       </c>
       <c r="B12" s="0">
-        <v>138.2569</v>
+        <v>135.2246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4925</v>
+        <v>0.2921</v>
       </c>
       <c r="B13" s="0">
-        <v>138.2021</v>
+        <v>135.8174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4441</v>
+        <v>0.3537</v>
       </c>
       <c r="B14" s="0">
-        <v>137.6076</v>
+        <v>136.6972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3956</v>
+        <v>0.3963</v>
       </c>
       <c r="B15" s="0">
-        <v>137.5551</v>
+        <v>137.5564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3535</v>
+        <v>0.4442</v>
       </c>
       <c r="B16" s="0">
-        <v>136.9674</v>
+        <v>137.6083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2924</v>
+        <v>0.4931</v>
       </c>
       <c r="B17" s="0">
-        <v>135.8172</v>
+        <v>138.2034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.245</v>
+        <v>0.5442</v>
       </c>
       <c r="B18" s="0">
-        <v>135.2238</v>
+        <v>138.5297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.224</v>
+        <v>0.5952</v>
       </c>
       <c r="B19" s="0">
-        <v>134.659</v>
+        <v>139.1271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1924</v>
+        <v>0.6458</v>
       </c>
       <c r="B20" s="0">
-        <v>134.6247</v>
+        <v>139.4528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1713</v>
+        <v>0.6958</v>
       </c>
       <c r="B21" s="0">
-        <v>134.6019</v>
+        <v>139.507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.146</v>
+        <v>0.7463</v>
       </c>
       <c r="B22" s="0">
-        <v>132.9485</v>
+        <v>139.5618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1187</v>
+        <v>0.7958</v>
       </c>
       <c r="B23" s="0">
-        <v>131.8348</v>
+        <v>140.1574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0944</v>
+        <v>0.8463</v>
       </c>
       <c r="B24" s="0">
-        <v>130.7245</v>
+        <v>140.7542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0671</v>
+        <v>0.8963</v>
       </c>
       <c r="B25" s="0">
-        <v>129.6109</v>
+        <v>140.8084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0428</v>
+        <v>0.9463</v>
       </c>
       <c r="B26" s="0">
-        <v>127.4166</v>
+        <v>141.1336</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0165</v>
+        <v>0.9868</v>
       </c>
       <c r="B27" s="0">
-        <v>120.884</v>
+        <v>141.7195</v>
       </c>
     </row>
     <row r="28"/>
